--- a/2AFMC/Excel/Book1.xlsx
+++ b/2AFMC/Excel/Book1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6D94DF22-17C9-4A83-A9E7-8AC8305358F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4A146E4-9DAF-478E-A2FF-CA69472B126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC34B2C-43AF-4D0F-9750-CFAB4AC109A9}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17496" windowHeight="12384" xr2:uid="{CEC34B2C-43AF-4D0F-9750-CFAB4AC109A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>CodeId</t>
   </si>
@@ -89,142 +89,73 @@
     <t>LineName</t>
   </si>
   <si>
-    <t>4942617252182864296-K44-DN8-Z9D</t>
-  </si>
-  <si>
-    <t>K44-DN8-Z9D</t>
-  </si>
-  <si>
     <t>Shipper</t>
   </si>
   <si>
-    <t>0424IB0058</t>
-  </si>
-  <si>
     <t>Saraswati Agro Chemicals India Pvt Ltd</t>
   </si>
   <si>
-    <t>2024-04-15 08:34:37.055000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-15 03:04:38.154837+00:00</t>
-  </si>
-  <si>
     <t>FMC-SACL-FERTERRA-B</t>
   </si>
   <si>
     <t>FERTERRA</t>
   </si>
   <si>
-    <t>7.5Kg</t>
-  </si>
-  <si>
-    <t>239aa3ab-19c5-4bc3-a07f-996ffbf9bdb5-K443-6YY-DTX</t>
-  </si>
-  <si>
-    <t>K443-6YY-DTX</t>
-  </si>
-  <si>
-    <t>K44-4NF-YO6</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
-    <t>0424IB0017</t>
-  </si>
-  <si>
-    <t>2024-04-05 08:29:16.399000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 02:59:17.182058+00:00</t>
-  </si>
-  <si>
-    <t>83f7707b-3491-4c31-91db-a5fcc3486183-K443-T5Q-V9T</t>
-  </si>
-  <si>
-    <t>K443-T5Q-V9T</t>
-  </si>
-  <si>
-    <t>2024-04-05 08:29:16.408000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 02:59:17.322103+00:00</t>
-  </si>
-  <si>
-    <t>4Kg</t>
-  </si>
-  <si>
-    <t>4c8c426e-77d7-4698-a45a-73820f73f560-G444-UDP-K7X</t>
-  </si>
-  <si>
-    <t>G444-UDP-K7X</t>
-  </si>
-  <si>
-    <t>G44-446-5ZK</t>
-  </si>
-  <si>
-    <t>0424VC0011</t>
-  </si>
-  <si>
-    <t>Vantech Chemicals Limited</t>
-  </si>
-  <si>
-    <t>2024-04-05 08:34:47.302000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 03:04:48.240139+00:00</t>
-  </si>
-  <si>
-    <t>FMC-VANTECH-FERTERRA</t>
-  </si>
-  <si>
-    <t>c726f081-3253-412c-bad8-1453ca7553b2-G444-RK4-9PV</t>
-  </si>
-  <si>
-    <t>G444-RK4-9PV</t>
-  </si>
-  <si>
-    <t>2024-04-05 08:34:47.313000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 03:04:48.444117+00:00</t>
-  </si>
-  <si>
-    <t>9fe50462-bf4f-4d71-a9a7-8826d5e560f8-C443-326-D4D</t>
-  </si>
-  <si>
-    <t>C443-326-D4D</t>
-  </si>
-  <si>
-    <t>C44-43U-OAC</t>
-  </si>
-  <si>
-    <t>0424PS0011</t>
-  </si>
-  <si>
-    <t>Prasad Seeds Pvt Ltd</t>
-  </si>
-  <si>
-    <t>2024-04-05 06:25:13.513000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 00:55:14.151606+00:00</t>
-  </si>
-  <si>
-    <t>FMC-PSPL-FERTERRA4KG</t>
-  </si>
-  <si>
-    <t>3800f895-bf21-4c50-b126-d64963f023e2-C443-P2E-BT7</t>
-  </si>
-  <si>
-    <t>C443-P2E-BT7</t>
-  </si>
-  <si>
-    <t>2024-04-05 06:25:13.519000+00:00</t>
-  </si>
-  <si>
-    <t>2024-04-05 00:55:14.383757+00:00</t>
+    <t>1136099526450321119-K44-GH8-955</t>
+  </si>
+  <si>
+    <t>K44-GH8-955</t>
+  </si>
+  <si>
+    <t>7.5KG</t>
+  </si>
+  <si>
+    <t>0424IB0066</t>
+  </si>
+  <si>
+    <t>2024-04-15 00:00:00+05:30</t>
+  </si>
+  <si>
+    <t>2026-04-14 00:00:00+05:30</t>
+  </si>
+  <si>
+    <t>2024-04-17 08:24:56.742000+00:00</t>
+  </si>
+  <si>
+    <t>2024-04-17 02:54:56.968728+00:00</t>
+  </si>
+  <si>
+    <t>16cd8df9-6eba-467c-b771-3abdaf7ee4aa-K44F-QQD-FB5</t>
+  </si>
+  <si>
+    <t>K44F-QQD-FB5</t>
+  </si>
+  <si>
+    <t>2024-04-15 05:30:00+05:30</t>
+  </si>
+  <si>
+    <t>2026-04-14 05:30:00+05:30</t>
+  </si>
+  <si>
+    <t>2024-04-17 08:24:56.745000+00:00</t>
+  </si>
+  <si>
+    <t>2024-04-17 02:54:57.088688+00:00</t>
+  </si>
+  <si>
+    <t>3301efde-9e6c-4128-88ee-c8ac864a3b49-K44F-O93-POS</t>
+  </si>
+  <si>
+    <t>K44F-O93-POS</t>
+  </si>
+  <si>
+    <t>2024-04-17 08:24:56.749000+00:00</t>
+  </si>
+  <si>
+    <t>2024-04-17 02:54:57.278687+00:00</t>
   </si>
 </sst>
 </file>
@@ -584,7 +515,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,56 +609,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>28</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>11013525</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45395</v>
-      </c>
-      <c r="J2" s="2">
-        <v>46124</v>
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>23</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>1860</v>
       </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1">
         <v>3</v>
       </c>
@@ -735,344 +662,136 @@
         <v>5580</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11013525</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J3" s="2">
-        <v>46115</v>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>996</v>
+        <v>1860</v>
       </c>
       <c r="U3" s="1">
-        <v>5976</v>
+        <v>5580</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11013525</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J4" s="2">
-        <v>46115</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>996</v>
+        <v>1860</v>
       </c>
       <c r="U4" s="1">
-        <v>5976</v>
+        <v>5580</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J5" s="2">
-        <v>46115</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>996</v>
-      </c>
-      <c r="U5" s="1">
-        <v>5976</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J6" s="2">
-        <v>46115</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>996</v>
-      </c>
-      <c r="U6" s="1">
-        <v>5976</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J7" s="2">
-        <v>46115</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>996</v>
-      </c>
-      <c r="U7" s="1">
-        <v>5976</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1">
-        <v>11000062</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45386</v>
-      </c>
-      <c r="J8" s="2">
-        <v>46115</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>996</v>
-      </c>
-      <c r="U8" s="1">
-        <v>5976</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
